--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Reln-Lrp8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Reln-Lrp8.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.07127766666666667</v>
+        <v>0.023873</v>
       </c>
       <c r="H2">
-        <v>0.213833</v>
+        <v>0.071619</v>
       </c>
       <c r="I2">
-        <v>0.04986387490716095</v>
+        <v>0.02747901635872243</v>
       </c>
       <c r="J2">
-        <v>0.04986387490716095</v>
+        <v>0.02747901635872243</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5987749999999999</v>
+        <v>0.569028</v>
       </c>
       <c r="N2">
-        <v>1.796325</v>
+        <v>1.707084</v>
       </c>
       <c r="O2">
-        <v>0.07475820864961619</v>
+        <v>0.1016535000995941</v>
       </c>
       <c r="P2">
-        <v>0.07475820864961619</v>
+        <v>0.1016535000995941</v>
       </c>
       <c r="Q2">
-        <v>0.04267928485833333</v>
+        <v>0.013584405444</v>
       </c>
       <c r="R2">
-        <v>0.384113563725</v>
+        <v>0.122259648996</v>
       </c>
       <c r="S2">
-        <v>0.003727733964387899</v>
+        <v>0.002793338192158138</v>
       </c>
       <c r="T2">
-        <v>0.003727733964387899</v>
+        <v>0.002793338192158137</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.07127766666666667</v>
+        <v>0.023873</v>
       </c>
       <c r="H3">
-        <v>0.213833</v>
+        <v>0.071619</v>
       </c>
       <c r="I3">
-        <v>0.04986387490716095</v>
+        <v>0.02747901635872243</v>
       </c>
       <c r="J3">
-        <v>0.04986387490716095</v>
+        <v>0.02747901635872243</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>3.29568</v>
       </c>
       <c r="O3">
-        <v>0.137157325696835</v>
+        <v>0.1962512724671019</v>
       </c>
       <c r="P3">
-        <v>0.137157325696835</v>
+        <v>0.1962512724671019</v>
       </c>
       <c r="Q3">
-        <v>0.07830279349333336</v>
+        <v>0.02622592288</v>
       </c>
       <c r="R3">
-        <v>0.7047251414400001</v>
+        <v>0.23603330592</v>
       </c>
       <c r="S3">
-        <v>0.006839195731147712</v>
+        <v>0.005392791926543586</v>
       </c>
       <c r="T3">
-        <v>0.006839195731147712</v>
+        <v>0.005392791926543586</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.07127766666666667</v>
+        <v>0.023873</v>
       </c>
       <c r="H4">
-        <v>0.213833</v>
+        <v>0.071619</v>
       </c>
       <c r="I4">
-        <v>0.04986387490716095</v>
+        <v>0.02747901635872243</v>
       </c>
       <c r="J4">
-        <v>0.04986387490716095</v>
+        <v>0.02747901635872243</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.281579</v>
+        <v>3.083549</v>
       </c>
       <c r="N4">
-        <v>6.844737</v>
+        <v>9.250647000000001</v>
       </c>
       <c r="O4">
-        <v>0.2848595197404412</v>
+        <v>0.5508578638987945</v>
       </c>
       <c r="P4">
-        <v>0.2848595197404412</v>
+        <v>0.5508578638987945</v>
       </c>
       <c r="Q4">
-        <v>0.1626256274356667</v>
+        <v>0.07361356527700001</v>
       </c>
       <c r="R4">
-        <v>1.463630646921</v>
+        <v>0.6625220874930001</v>
       </c>
       <c r="S4">
-        <v>0.01420419945845131</v>
+        <v>0.01513703225340587</v>
       </c>
       <c r="T4">
-        <v>0.0142041994584513</v>
+        <v>0.01513703225340587</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.07127766666666667</v>
+        <v>0.023873</v>
       </c>
       <c r="H5">
-        <v>0.213833</v>
+        <v>0.071619</v>
       </c>
       <c r="I5">
-        <v>0.04986387490716095</v>
+        <v>0.02747901635872243</v>
       </c>
       <c r="J5">
-        <v>0.04986387490716095</v>
+        <v>0.02747901635872243</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.6493676666666667</v>
+        <v>0.3400753333333333</v>
       </c>
       <c r="N5">
-        <v>1.948103</v>
+        <v>1.020226</v>
       </c>
       <c r="O5">
-        <v>0.08107480024212949</v>
+        <v>0.06075245494223394</v>
       </c>
       <c r="P5">
-        <v>0.0810748002421295</v>
+        <v>0.06075245494223393</v>
       </c>
       <c r="Q5">
-        <v>0.04628541208877778</v>
+        <v>0.008118618432666667</v>
       </c>
       <c r="R5">
-        <v>0.416568708799</v>
+        <v>0.07306756589400001</v>
       </c>
       <c r="S5">
-        <v>0.004042703697396607</v>
+        <v>0.001669417703190193</v>
       </c>
       <c r="T5">
-        <v>0.004042703697396607</v>
+        <v>0.001669417703190193</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.07127766666666667</v>
+        <v>0.023873</v>
       </c>
       <c r="H6">
-        <v>0.213833</v>
+        <v>0.071619</v>
       </c>
       <c r="I6">
-        <v>0.04986387490716095</v>
+        <v>0.02747901635872243</v>
       </c>
       <c r="J6">
-        <v>0.04986387490716095</v>
+        <v>0.02747901635872243</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.381206666666667</v>
+        <v>0.5065093333333334</v>
       </c>
       <c r="N6">
-        <v>10.14362</v>
+        <v>1.519528</v>
       </c>
       <c r="O6">
-        <v>0.4221501456709782</v>
+        <v>0.0904849085922755</v>
       </c>
       <c r="P6">
-        <v>0.4221501456709781</v>
+        <v>0.09048490859227548</v>
       </c>
       <c r="Q6">
-        <v>0.2410045217177778</v>
+        <v>0.01209189731466667</v>
       </c>
       <c r="R6">
-        <v>2.16904069546</v>
+        <v>0.108827075832</v>
       </c>
       <c r="S6">
-        <v>0.02105004205577743</v>
+        <v>0.002486436283424642</v>
       </c>
       <c r="T6">
-        <v>0.02105004205577743</v>
+        <v>0.002486436283424641</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>0.107054</v>
       </c>
       <c r="I7">
-        <v>0.02496400117994513</v>
+        <v>0.04107483513127341</v>
       </c>
       <c r="J7">
-        <v>0.02496400117994513</v>
+        <v>0.04107483513127341</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.5987749999999999</v>
+        <v>0.569028</v>
       </c>
       <c r="N7">
-        <v>1.796325</v>
+        <v>1.707084</v>
       </c>
       <c r="O7">
-        <v>0.07475820864961619</v>
+        <v>0.1016535000995941</v>
       </c>
       <c r="P7">
-        <v>0.07475820864961619</v>
+        <v>0.1016535000995941</v>
       </c>
       <c r="Q7">
-        <v>0.02136708628333333</v>
+        <v>0.020305574504</v>
       </c>
       <c r="R7">
-        <v>0.19230377655</v>
+        <v>0.182750170536</v>
       </c>
       <c r="S7">
-        <v>0.001866264008939603</v>
+        <v>0.004175400757107712</v>
       </c>
       <c r="T7">
-        <v>0.001866264008939603</v>
+        <v>0.004175400757107713</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.107054</v>
       </c>
       <c r="I8">
-        <v>0.02496400117994513</v>
+        <v>0.04107483513127341</v>
       </c>
       <c r="J8">
-        <v>0.02496400117994513</v>
+        <v>0.04107483513127341</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>3.29568</v>
       </c>
       <c r="O8">
-        <v>0.137157325696835</v>
+        <v>0.1962512724671019</v>
       </c>
       <c r="P8">
-        <v>0.137157325696835</v>
+        <v>0.1962512724671019</v>
       </c>
       <c r="Q8">
         <v>0.03920174741333333</v>
       </c>
       <c r="R8">
-        <v>0.3528157267200001</v>
+        <v>0.35281572672</v>
       </c>
       <c r="S8">
-        <v>0.003423995640533908</v>
+        <v>0.008060988660888828</v>
       </c>
       <c r="T8">
-        <v>0.003423995640533908</v>
+        <v>0.008060988660888828</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>0.107054</v>
       </c>
       <c r="I9">
-        <v>0.02496400117994513</v>
+        <v>0.04107483513127341</v>
       </c>
       <c r="J9">
-        <v>0.02496400117994513</v>
+        <v>0.04107483513127341</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.281579</v>
+        <v>3.083549</v>
       </c>
       <c r="N9">
-        <v>6.844737</v>
+        <v>9.250647000000001</v>
       </c>
       <c r="O9">
-        <v>0.2848595197404412</v>
+        <v>0.5508578638987945</v>
       </c>
       <c r="P9">
-        <v>0.2848595197404412</v>
+        <v>0.5508578638987945</v>
       </c>
       <c r="Q9">
-        <v>0.08141738608866667</v>
+        <v>0.1100354182153333</v>
       </c>
       <c r="R9">
-        <v>0.732756474798</v>
+        <v>0.990318763938</v>
       </c>
       <c r="S9">
-        <v>0.007111233386918978</v>
+        <v>0.02262639594040843</v>
       </c>
       <c r="T9">
-        <v>0.007111233386918978</v>
+        <v>0.02262639594040844</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>0.107054</v>
       </c>
       <c r="I10">
-        <v>0.02496400117994513</v>
+        <v>0.04107483513127341</v>
       </c>
       <c r="J10">
-        <v>0.02496400117994513</v>
+        <v>0.04107483513127341</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.6493676666666667</v>
+        <v>0.3400753333333333</v>
       </c>
       <c r="N10">
-        <v>1.948103</v>
+        <v>1.020226</v>
       </c>
       <c r="O10">
-        <v>0.08107480024212949</v>
+        <v>0.06075245494223394</v>
       </c>
       <c r="P10">
-        <v>0.0810748002421295</v>
+        <v>0.06075245494223393</v>
       </c>
       <c r="Q10">
-        <v>0.02317246872911111</v>
+        <v>0.01213547491155556</v>
       </c>
       <c r="R10">
-        <v>0.208552218562</v>
+        <v>0.109219274204</v>
       </c>
       <c r="S10">
-        <v>0.002023951408908336</v>
+        <v>0.002495397070572376</v>
       </c>
       <c r="T10">
-        <v>0.002023951408908337</v>
+        <v>0.002495397070572376</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>0.107054</v>
       </c>
       <c r="I11">
-        <v>0.02496400117994513</v>
+        <v>0.04107483513127341</v>
       </c>
       <c r="J11">
-        <v>0.02496400117994513</v>
+        <v>0.04107483513127341</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.381206666666667</v>
+        <v>0.5065093333333334</v>
       </c>
       <c r="N11">
-        <v>10.14362</v>
+        <v>1.519528</v>
       </c>
       <c r="O11">
-        <v>0.4221501456709782</v>
+        <v>0.0904849085922755</v>
       </c>
       <c r="P11">
-        <v>0.4221501456709781</v>
+        <v>0.09048490859227548</v>
       </c>
       <c r="Q11">
-        <v>0.1206572328311111</v>
+        <v>0.01807461672355555</v>
       </c>
       <c r="R11">
-        <v>1.08591509548</v>
+        <v>0.162671550512</v>
       </c>
       <c r="S11">
-        <v>0.01053855673464431</v>
+        <v>0.00371665270229606</v>
       </c>
       <c r="T11">
-        <v>0.01053855673464431</v>
+        <v>0.00371665270229606</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.01641</v>
+        <v>0.011261</v>
       </c>
       <c r="H12">
-        <v>0.04923</v>
+        <v>0.033783</v>
       </c>
       <c r="I12">
-        <v>0.01147997999223475</v>
+        <v>0.01296197391260307</v>
       </c>
       <c r="J12">
-        <v>0.01147997999223475</v>
+        <v>0.01296197391260308</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5987749999999999</v>
+        <v>0.569028</v>
       </c>
       <c r="N12">
-        <v>1.796325</v>
+        <v>1.707084</v>
       </c>
       <c r="O12">
-        <v>0.07475820864961619</v>
+        <v>0.1016535000995941</v>
       </c>
       <c r="P12">
-        <v>0.07475820864961619</v>
+        <v>0.1016535000995941</v>
       </c>
       <c r="Q12">
-        <v>0.00982589775</v>
+        <v>0.006407824308</v>
       </c>
       <c r="R12">
-        <v>0.08843307975</v>
+        <v>0.057670418772</v>
       </c>
       <c r="S12">
-        <v>0.0008582227395529047</v>
+        <v>0.001317630016415733</v>
       </c>
       <c r="T12">
-        <v>0.0008582227395529048</v>
+        <v>0.001317630016415733</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.01641</v>
+        <v>0.011261</v>
       </c>
       <c r="H13">
-        <v>0.04923</v>
+        <v>0.033783</v>
       </c>
       <c r="I13">
-        <v>0.01147997999223475</v>
+        <v>0.01296197391260307</v>
       </c>
       <c r="J13">
-        <v>0.01147997999223475</v>
+        <v>0.01296197391260308</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>3.29568</v>
       </c>
       <c r="O13">
-        <v>0.137157325696835</v>
+        <v>0.1962512724671019</v>
       </c>
       <c r="P13">
-        <v>0.137157325696835</v>
+        <v>0.1962512724671019</v>
       </c>
       <c r="Q13">
-        <v>0.01802736960000001</v>
+        <v>0.01237088416</v>
       </c>
       <c r="R13">
-        <v>0.1622463264</v>
+        <v>0.11133795744</v>
       </c>
       <c r="S13">
-        <v>0.001574563354788091</v>
+        <v>0.002543803874033733</v>
       </c>
       <c r="T13">
-        <v>0.001574563354788091</v>
+        <v>0.002543803874033733</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.01641</v>
+        <v>0.011261</v>
       </c>
       <c r="H14">
-        <v>0.04923</v>
+        <v>0.033783</v>
       </c>
       <c r="I14">
-        <v>0.01147997999223475</v>
+        <v>0.01296197391260307</v>
       </c>
       <c r="J14">
-        <v>0.01147997999223475</v>
+        <v>0.01296197391260308</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.281579</v>
+        <v>3.083549</v>
       </c>
       <c r="N14">
-        <v>6.844737</v>
+        <v>9.250647000000001</v>
       </c>
       <c r="O14">
-        <v>0.2848595197404412</v>
+        <v>0.5508578638987945</v>
       </c>
       <c r="P14">
-        <v>0.2848595197404412</v>
+        <v>0.5508578638987945</v>
       </c>
       <c r="Q14">
-        <v>0.03744071139000001</v>
+        <v>0.034723845289</v>
       </c>
       <c r="R14">
-        <v>0.33696640251</v>
+        <v>0.312514607601</v>
       </c>
       <c r="S14">
-        <v>0.003270181587217865</v>
+        <v>0.00714020526140843</v>
       </c>
       <c r="T14">
-        <v>0.003270181587217865</v>
+        <v>0.007140205261408431</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.01641</v>
+        <v>0.011261</v>
       </c>
       <c r="H15">
-        <v>0.04923</v>
+        <v>0.033783</v>
       </c>
       <c r="I15">
-        <v>0.01147997999223475</v>
+        <v>0.01296197391260307</v>
       </c>
       <c r="J15">
-        <v>0.01147997999223475</v>
+        <v>0.01296197391260308</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.6493676666666667</v>
+        <v>0.3400753333333333</v>
       </c>
       <c r="N15">
-        <v>1.948103</v>
+        <v>1.020226</v>
       </c>
       <c r="O15">
-        <v>0.08107480024212949</v>
+        <v>0.06075245494223394</v>
       </c>
       <c r="P15">
-        <v>0.0810748002421295</v>
+        <v>0.06075245494223393</v>
       </c>
       <c r="Q15">
-        <v>0.01065612341</v>
+        <v>0.003829588328666667</v>
       </c>
       <c r="R15">
-        <v>0.09590511069000002</v>
+        <v>0.034466294958</v>
       </c>
       <c r="S15">
-        <v>0.0009307370846540756</v>
+        <v>0.0007874717360878301</v>
       </c>
       <c r="T15">
-        <v>0.0009307370846540759</v>
+        <v>0.0007874717360878301</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>26</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.01641</v>
+        <v>0.011261</v>
       </c>
       <c r="H16">
-        <v>0.04923</v>
+        <v>0.033783</v>
       </c>
       <c r="I16">
-        <v>0.01147997999223475</v>
+        <v>0.01296197391260307</v>
       </c>
       <c r="J16">
-        <v>0.01147997999223475</v>
+        <v>0.01296197391260308</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.381206666666667</v>
+        <v>0.5065093333333334</v>
       </c>
       <c r="N16">
-        <v>10.14362</v>
+        <v>1.519528</v>
       </c>
       <c r="O16">
-        <v>0.4221501456709782</v>
+        <v>0.0904849085922755</v>
       </c>
       <c r="P16">
-        <v>0.4221501456709781</v>
+        <v>0.09048490859227548</v>
       </c>
       <c r="Q16">
-        <v>0.05548560140000001</v>
+        <v>0.005703801602666667</v>
       </c>
       <c r="R16">
-        <v>0.4993704126</v>
+        <v>0.051334214424</v>
       </c>
       <c r="S16">
-        <v>0.004846275226021815</v>
+        <v>0.001172863024657349</v>
       </c>
       <c r="T16">
-        <v>0.004846275226021816</v>
+        <v>0.001172863024657349</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.306072666666666</v>
+        <v>0.7979533333333334</v>
       </c>
       <c r="H17">
-        <v>3.918218</v>
+        <v>2.39386</v>
       </c>
       <c r="I17">
-        <v>0.9136921439206591</v>
+        <v>0.9184841745974011</v>
       </c>
       <c r="J17">
-        <v>0.9136921439206592</v>
+        <v>0.9184841745974011</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.5987749999999999</v>
+        <v>0.569028</v>
       </c>
       <c r="N17">
-        <v>1.796325</v>
+        <v>1.707084</v>
       </c>
       <c r="O17">
-        <v>0.07475820864961619</v>
+        <v>0.1016535000995941</v>
       </c>
       <c r="P17">
-        <v>0.07475820864961619</v>
+        <v>0.1016535000995941</v>
       </c>
       <c r="Q17">
-        <v>0.7820436609833331</v>
+        <v>0.45405778936</v>
       </c>
       <c r="R17">
-        <v>7.038392948849999</v>
+        <v>4.08652010424</v>
       </c>
       <c r="S17">
-        <v>0.06830598793673577</v>
+        <v>0.0933671311339125</v>
       </c>
       <c r="T17">
-        <v>0.06830598793673578</v>
+        <v>0.0933671311339125</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.306072666666666</v>
+        <v>0.7979533333333334</v>
       </c>
       <c r="H18">
-        <v>3.918218</v>
+        <v>2.39386</v>
       </c>
       <c r="I18">
-        <v>0.9136921439206591</v>
+        <v>0.9184841745974011</v>
       </c>
       <c r="J18">
-        <v>0.9136921439206592</v>
+        <v>0.9184841745974011</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>3.29568</v>
       </c>
       <c r="O18">
-        <v>0.137157325696835</v>
+        <v>0.1962512724671019</v>
       </c>
       <c r="P18">
-        <v>0.137157325696835</v>
+        <v>0.1962512724671019</v>
       </c>
       <c r="Q18">
-        <v>1.434799188693333</v>
+        <v>0.8765996138666667</v>
       </c>
       <c r="R18">
-        <v>12.91319269824</v>
+        <v>7.8893965248</v>
       </c>
       <c r="S18">
-        <v>0.1253195709703653</v>
+        <v>0.1802536880056358</v>
       </c>
       <c r="T18">
-        <v>0.1253195709703653</v>
+        <v>0.1802536880056358</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.306072666666666</v>
+        <v>0.7979533333333334</v>
       </c>
       <c r="H19">
-        <v>3.918218</v>
+        <v>2.39386</v>
       </c>
       <c r="I19">
-        <v>0.9136921439206591</v>
+        <v>0.9184841745974011</v>
       </c>
       <c r="J19">
-        <v>0.9136921439206592</v>
+        <v>0.9184841745974011</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.281579</v>
+        <v>3.083549</v>
       </c>
       <c r="N19">
-        <v>6.844737</v>
+        <v>9.250647000000001</v>
       </c>
       <c r="O19">
-        <v>0.2848595197404412</v>
+        <v>0.5508578638987945</v>
       </c>
       <c r="P19">
-        <v>0.2848595197404412</v>
+        <v>0.5508578638987945</v>
       </c>
       <c r="Q19">
-        <v>2.979907968740667</v>
+        <v>2.460528203046667</v>
       </c>
       <c r="R19">
-        <v>26.819171718666</v>
+        <v>22.14475382742</v>
       </c>
       <c r="S19">
-        <v>0.260273905307853</v>
+        <v>0.5059542304435718</v>
       </c>
       <c r="T19">
-        <v>0.260273905307853</v>
+        <v>0.5059542304435718</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.306072666666666</v>
+        <v>0.7979533333333334</v>
       </c>
       <c r="H20">
-        <v>3.918218</v>
+        <v>2.39386</v>
       </c>
       <c r="I20">
-        <v>0.9136921439206591</v>
+        <v>0.9184841745974011</v>
       </c>
       <c r="J20">
-        <v>0.9136921439206592</v>
+        <v>0.9184841745974011</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.6493676666666667</v>
+        <v>0.3400753333333333</v>
       </c>
       <c r="N20">
-        <v>1.948103</v>
+        <v>1.020226</v>
       </c>
       <c r="O20">
-        <v>0.08107480024212949</v>
+        <v>0.06075245494223394</v>
       </c>
       <c r="P20">
-        <v>0.0810748002421295</v>
+        <v>0.06075245494223393</v>
       </c>
       <c r="Q20">
-        <v>0.8481213600504444</v>
+        <v>0.2713642458177778</v>
       </c>
       <c r="R20">
-        <v>7.633092240453999</v>
+        <v>2.44227821236</v>
       </c>
       <c r="S20">
-        <v>0.07407740805117047</v>
+        <v>0.05580016843238354</v>
       </c>
       <c r="T20">
-        <v>0.07407740805117048</v>
+        <v>0.05580016843238354</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.306072666666666</v>
+        <v>0.7979533333333334</v>
       </c>
       <c r="H21">
-        <v>3.918218</v>
+        <v>2.39386</v>
       </c>
       <c r="I21">
-        <v>0.9136921439206591</v>
+        <v>0.9184841745974011</v>
       </c>
       <c r="J21">
-        <v>0.9136921439206592</v>
+        <v>0.9184841745974011</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.381206666666667</v>
+        <v>0.5065093333333334</v>
       </c>
       <c r="N21">
-        <v>10.14362</v>
+        <v>1.519528</v>
       </c>
       <c r="O21">
-        <v>0.4221501456709782</v>
+        <v>0.0904849085922755</v>
       </c>
       <c r="P21">
-        <v>0.4221501456709781</v>
+        <v>0.09048490859227548</v>
       </c>
       <c r="Q21">
-        <v>4.416101607684444</v>
+        <v>0.4041708108977778</v>
       </c>
       <c r="R21">
-        <v>39.74491446915999</v>
+        <v>3.63753729808</v>
       </c>
       <c r="S21">
-        <v>0.3857152716545346</v>
+        <v>0.08310895658189744</v>
       </c>
       <c r="T21">
-        <v>0.3857152716545346</v>
+        <v>0.08310895658189743</v>
       </c>
     </row>
   </sheetData>
